--- a/CTEMMM.xlsx
+++ b/CTEMMM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zenzizensec-my.sharepoint.com/personal/jonathan_zenzizensec_com/Documents/LDR516/July turn in/Maturity Models/CTEM-MM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zenzizensec-my.sharepoint.com/personal/jonathan_zenzizensec_com/Documents/LDR516/July turn in/Maturity Models/CTEMMM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB00FAE7-AB28-F140-B3CC-76DAE87752FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="14_{A9B1B4A6-6B09-9640-BDBF-1EE0CC6B8E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C2758BC-E6A5-4442-BAE0-374C547550DD}"/>
   <bookViews>
     <workbookView xWindow="1720" yWindow="1800" windowWidth="31500" windowHeight="17440" xr2:uid="{E613C0B1-E856-D640-A56B-03DF0D2D3E73}"/>
   </bookViews>
@@ -18,7 +18,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CTEM-MM'!$C$3:$C$41</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'CTEM-MM'!$A$1:$H$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'CTEM-MM'!$A$3:$H$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Definitions!$A$2:$C$45</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="289">
   <si>
     <t>Scoping</t>
   </si>
@@ -905,6 +906,9 @@
   </si>
   <si>
     <t>Evolving the CTEM program based on feedback, threat evolution, and operational learning.</t>
+  </si>
+  <si>
+    <t>© 2025 ZenzizenSec Inc. All rights reserved. CTEMMM™ – Continuous Threat Exposure Management Maturity Model. Licensed for non-commercial use only. For terms, contact license@zenzizensec.com</t>
   </si>
 </sst>
 </file>
@@ -994,7 +998,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1019,6 +1023,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1034,8 +1041,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1385,7 +1392,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:H41"/>
+  <dimension ref="A2:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -1401,13 +1408,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1436,7 +1443,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="190" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1462,7 +1469,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="152" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1486,7 +1493,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="152" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="3" t="s">
         <v>28</v>
       </c>
@@ -1510,7 +1517,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="152" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1534,7 +1541,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="152" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
@@ -1558,7 +1565,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="152" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="6" t="s">
         <v>67</v>
       </c>
@@ -1582,7 +1589,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="190" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="3" t="s">
         <v>80</v>
       </c>
@@ -1606,7 +1613,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="152" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="6" t="s">
         <v>79</v>
       </c>
@@ -1630,7 +1637,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="152" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="3" t="s">
         <v>81</v>
       </c>
@@ -1654,7 +1661,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="171" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -1680,7 +1687,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="152" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
@@ -1704,7 +1711,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="171" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="4" t="s">
         <v>31</v>
       </c>
@@ -1728,7 +1735,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="152" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
@@ -1752,7 +1759,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="171" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="4" t="s">
         <v>14</v>
       </c>
@@ -1776,7 +1783,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="171" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1800,7 +1807,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="152" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="4" t="s">
         <v>68</v>
       </c>
@@ -1824,7 +1831,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="171" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -1850,7 +1857,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="152" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="1" t="s">
         <v>32</v>
       </c>
@@ -1874,7 +1881,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="171" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="7" t="s">
         <v>33</v>
       </c>
@@ -1898,7 +1905,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="152" x14ac:dyDescent="0.2">
-      <c r="A23" s="13"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="1" t="s">
         <v>17</v>
       </c>
@@ -1922,7 +1929,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="171" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="7" t="s">
         <v>18</v>
       </c>
@@ -1946,7 +1953,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="190" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="6" t="s">
         <v>69</v>
       </c>
@@ -1970,7 +1977,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="152" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
+      <c r="A26" s="14"/>
       <c r="B26" s="7" t="s">
         <v>72</v>
       </c>
@@ -1994,7 +2001,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="171" x14ac:dyDescent="0.2">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -2020,7 +2027,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="152" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="1" t="s">
         <v>35</v>
       </c>
@@ -2044,7 +2051,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="152" x14ac:dyDescent="0.2">
-      <c r="A29" s="14"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="5" t="s">
         <v>36</v>
       </c>
@@ -2068,7 +2075,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="152" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
+      <c r="A30" s="15"/>
       <c r="B30" s="1" t="s">
         <v>19</v>
       </c>
@@ -2092,7 +2099,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="152" x14ac:dyDescent="0.2">
-      <c r="A31" s="14"/>
+      <c r="A31" s="15"/>
       <c r="B31" s="5" t="s">
         <v>20</v>
       </c>
@@ -2116,7 +2123,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="171" x14ac:dyDescent="0.2">
-      <c r="A32" s="14"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="6" t="s">
         <v>70</v>
       </c>
@@ -2140,7 +2147,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="171" x14ac:dyDescent="0.2">
-      <c r="A33" s="14"/>
+      <c r="A33" s="15"/>
       <c r="B33" s="5" t="s">
         <v>21</v>
       </c>
@@ -2164,7 +2171,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="190" x14ac:dyDescent="0.2">
-      <c r="A34" s="14"/>
+      <c r="A34" s="15"/>
       <c r="B34" s="1" t="s">
         <v>71</v>
       </c>
@@ -2188,7 +2195,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="152" x14ac:dyDescent="0.2">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -2214,7 +2221,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="152" x14ac:dyDescent="0.2">
-      <c r="A36" s="15"/>
+      <c r="A36" s="10"/>
       <c r="B36" s="1" t="s">
         <v>23</v>
       </c>
@@ -2238,7 +2245,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="152" x14ac:dyDescent="0.2">
-      <c r="A37" s="15"/>
+      <c r="A37" s="10"/>
       <c r="B37" s="2" t="s">
         <v>24</v>
       </c>
@@ -2262,7 +2269,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="152" x14ac:dyDescent="0.2">
-      <c r="A38" s="15"/>
+      <c r="A38" s="10"/>
       <c r="B38" s="1" t="s">
         <v>25</v>
       </c>
@@ -2286,7 +2293,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="152" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
+      <c r="A39" s="10"/>
       <c r="B39" s="2" t="s">
         <v>26</v>
       </c>
@@ -2310,7 +2317,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="133" x14ac:dyDescent="0.2">
-      <c r="A40" s="15"/>
+      <c r="A40" s="10"/>
       <c r="B40" s="1" t="s">
         <v>73</v>
       </c>
@@ -2334,7 +2341,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="209" x14ac:dyDescent="0.2">
-      <c r="A41" s="15"/>
+      <c r="A41" s="10"/>
       <c r="B41" s="2" t="s">
         <v>235</v>
       </c>
@@ -2355,6 +2362,11 @@
       </c>
       <c r="H41" s="2" t="s">
         <v>240</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B44" s="16" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -2371,16 +2383,19 @@
     <mergeCell ref="A27:A34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="40" fitToHeight="5" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="39" fitToHeight="5" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{573AA0A3-8525-9248-9DD7-DDE2A7691845}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A2:C43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2728,5 +2743,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="65" fitToHeight="2" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/CTEMMM.xlsx
+++ b/CTEMMM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zenzizensec-my.sharepoint.com/personal/jonathan_zenzizensec_com/Documents/LDR516/July turn in/Maturity Models/CTEMMM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ristoj/Library/CloudStorage/OneDrive-ZenzizenSec/LDR516/July turn in/Maturity Models/CTEMMM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="14_{A9B1B4A6-6B09-9640-BDBF-1EE0CC6B8E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C2758BC-E6A5-4442-BAE0-374C547550DD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E2FE87-200F-1B4E-96B3-468CADCB3635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1720" yWindow="1800" windowWidth="31500" windowHeight="17440" xr2:uid="{E613C0B1-E856-D640-A56B-03DF0D2D3E73}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="290">
   <si>
     <t>Scoping</t>
   </si>
@@ -909,6 +909,9 @@
   </si>
   <si>
     <t>© 2025 ZenzizenSec Inc. All rights reserved. CTEMMM™ – Continuous Threat Exposure Management Maturity Model. Licensed for non-commercial use only. For terms, contact license@zenzizensec.com</t>
+  </si>
+  <si>
+    <t>BAS exercises are conducted occasionally by security teams, but results are not integrated into CTEM workflows. Findings may influence isolated remediation efforts but are not tied to exposure validation.</t>
   </si>
 </sst>
 </file>
@@ -1023,6 +1026,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1040,9 +1046,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1394,8 +1397,8 @@
   </sheetPr>
   <dimension ref="A2:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -1408,13 +1411,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1443,7 +1446,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="190" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1469,7 +1472,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="152" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1493,7 +1496,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="152" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="3" t="s">
         <v>28</v>
       </c>
@@ -1517,7 +1520,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="152" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1541,7 +1544,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="152" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
@@ -1565,7 +1568,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="152" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="6" t="s">
         <v>67</v>
       </c>
@@ -1589,7 +1592,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="190" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="3" t="s">
         <v>80</v>
       </c>
@@ -1613,7 +1616,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="152" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="6" t="s">
         <v>79</v>
       </c>
@@ -1637,7 +1640,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="152" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="3" t="s">
         <v>81</v>
       </c>
@@ -1661,7 +1664,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="171" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="14" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -1687,7 +1690,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="152" x14ac:dyDescent="0.2">
-      <c r="A14" s="13"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
@@ -1711,7 +1714,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="171" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="4" t="s">
         <v>31</v>
       </c>
@@ -1735,7 +1738,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="152" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,7 +1762,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="171" x14ac:dyDescent="0.2">
-      <c r="A17" s="13"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="4" t="s">
         <v>14</v>
       </c>
@@ -1783,7 +1786,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="171" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
@@ -1807,7 +1810,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="152" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="4" t="s">
         <v>68</v>
       </c>
@@ -1831,7 +1834,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="171" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -1857,7 +1860,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="152" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="1" t="s">
         <v>32</v>
       </c>
@@ -1881,7 +1884,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="171" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="7" t="s">
         <v>33</v>
       </c>
@@ -1905,7 +1908,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="152" x14ac:dyDescent="0.2">
-      <c r="A23" s="14"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="1" t="s">
         <v>17</v>
       </c>
@@ -1929,7 +1932,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="171" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="7" t="s">
         <v>18</v>
       </c>
@@ -1953,7 +1956,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="190" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="6" t="s">
         <v>69</v>
       </c>
@@ -1977,7 +1980,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="152" x14ac:dyDescent="0.2">
-      <c r="A26" s="14"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="7" t="s">
         <v>72</v>
       </c>
@@ -2001,7 +2004,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="171" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -2027,7 +2030,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="152" x14ac:dyDescent="0.2">
-      <c r="A28" s="15"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="1" t="s">
         <v>35</v>
       </c>
@@ -2051,7 +2054,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="152" x14ac:dyDescent="0.2">
-      <c r="A29" s="15"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="5" t="s">
         <v>36</v>
       </c>
@@ -2075,7 +2078,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="152" x14ac:dyDescent="0.2">
-      <c r="A30" s="15"/>
+      <c r="A30" s="16"/>
       <c r="B30" s="1" t="s">
         <v>19</v>
       </c>
@@ -2086,7 +2089,7 @@
         <v>166</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>166</v>
+        <v>289</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>167</v>
@@ -2099,7 +2102,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="152" x14ac:dyDescent="0.2">
-      <c r="A31" s="15"/>
+      <c r="A31" s="16"/>
       <c r="B31" s="5" t="s">
         <v>20</v>
       </c>
@@ -2123,7 +2126,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="171" x14ac:dyDescent="0.2">
-      <c r="A32" s="15"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="6" t="s">
         <v>70</v>
       </c>
@@ -2147,7 +2150,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="171" x14ac:dyDescent="0.2">
-      <c r="A33" s="15"/>
+      <c r="A33" s="16"/>
       <c r="B33" s="5" t="s">
         <v>21</v>
       </c>
@@ -2171,7 +2174,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="190" x14ac:dyDescent="0.2">
-      <c r="A34" s="15"/>
+      <c r="A34" s="16"/>
       <c r="B34" s="1" t="s">
         <v>71</v>
       </c>
@@ -2195,7 +2198,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="152" x14ac:dyDescent="0.2">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -2221,7 +2224,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="152" x14ac:dyDescent="0.2">
-      <c r="A36" s="10"/>
+      <c r="A36" s="11"/>
       <c r="B36" s="1" t="s">
         <v>23</v>
       </c>
@@ -2245,7 +2248,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="152" x14ac:dyDescent="0.2">
-      <c r="A37" s="10"/>
+      <c r="A37" s="11"/>
       <c r="B37" s="2" t="s">
         <v>24</v>
       </c>
@@ -2269,7 +2272,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="152" x14ac:dyDescent="0.2">
-      <c r="A38" s="10"/>
+      <c r="A38" s="11"/>
       <c r="B38" s="1" t="s">
         <v>25</v>
       </c>
@@ -2293,7 +2296,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="152" x14ac:dyDescent="0.2">
-      <c r="A39" s="10"/>
+      <c r="A39" s="11"/>
       <c r="B39" s="2" t="s">
         <v>26</v>
       </c>
@@ -2317,7 +2320,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="133" x14ac:dyDescent="0.2">
-      <c r="A40" s="10"/>
+      <c r="A40" s="11"/>
       <c r="B40" s="1" t="s">
         <v>73</v>
       </c>
@@ -2341,7 +2344,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="209" x14ac:dyDescent="0.2">
-      <c r="A41" s="10"/>
+      <c r="A41" s="11"/>
       <c r="B41" s="2" t="s">
         <v>235</v>
       </c>
@@ -2365,7 +2368,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="10" t="s">
         <v>288</v>
       </c>
     </row>
